--- a/docs/parallel_analysis_results.xlsx
+++ b/docs/parallel_analysis_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaming\Desktop\cpa_report\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F8F022-52E2-4847-B443-D00189317280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509BD1DC-AA04-4D25-A554-1E0ECCDD1DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T1" sheetId="1" r:id="rId1"/>
@@ -102,67 +102,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB" sz="1800" i="1">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Scree Plot of Sample and Parallel Analysis Eigenvalues</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1800">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -246,10 +186,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -424,10 +361,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -544,7 +478,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Factors</a:t>
                 </a:r>
               </a:p>
@@ -650,7 +588,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Eigenvalues</a:t>
                 </a:r>
               </a:p>
@@ -703,10 +645,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -745,10 +684,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -805,67 +741,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB" sz="1800" i="1">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Scree Plot of Sample and Parallel Analysis Eigenvalues</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1800">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -949,10 +825,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1124,10 +997,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1230,10 +1100,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1241,7 +1108,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Factors</a:t>
                 </a:r>
               </a:p>
@@ -1262,10 +1133,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1300,10 +1168,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1400,10 +1265,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1442,10 +1304,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2615,7 +2474,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{237A2F74-7EC7-4830-948D-62FAC94480AF}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2626,7 +2485,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662737" cy="6286500"/>
+    <xdr:ext cx="8673353" cy="6297706"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -2659,7 +2518,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662737" cy="6286500"/>
+    <xdr:ext cx="8673353" cy="6297706"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -2953,8 +2812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
